--- a/vendor/Perhitungan Klasifikasi Naive Bayes baru.xlsx
+++ b/vendor/Perhitungan Klasifikasi Naive Bayes baru.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp-gui\htdocs\apps\sp-nbc\vendor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236747A3-630F-41CA-B5DA-5FB9766412A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-28920" yWindow="-3090" windowWidth="29040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -929,7 +935,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1172,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1198,10 +1204,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,30 +1225,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,45 +1255,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1309,12 +1268,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,19 +1313,14 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1380,27 +1328,14 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1411,32 +1346,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,6 +1425,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1468,7 +1450,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1515,7 +1503,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Right Brace 11"/>
+        <xdr:cNvPr id="12" name="Right Brace 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1563,11 +1557,17 @@
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3048000" cy="457201"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1624,7 +1624,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -1715,7 +1715,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -1789,7 +1789,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Right Brace 13"/>
+        <xdr:cNvPr id="14" name="Right Brace 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1837,11 +1843,17 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3048000" cy="457201"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14"/>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1898,7 +1910,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -1989,7 +2001,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -2056,11 +2068,17 @@
       <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3048000" cy="457201"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2117,7 +2135,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -2208,7 +2226,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -2275,11 +2293,17 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3048000" cy="457201"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2336,7 +2360,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -2427,7 +2451,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -2501,7 +2525,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Right Brace 17"/>
+        <xdr:cNvPr id="18" name="Right Brace 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2556,7 +2586,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Right Brace 18"/>
+        <xdr:cNvPr id="19" name="Right Brace 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2604,11 +2640,17 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3324225" cy="561976"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="TextBox 19"/>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2665,7 +2707,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -2768,7 +2810,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -2842,7 +2884,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="20" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2884,11 +2932,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3362325" cy="561976"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="TextBox 23"/>
+            <xdr:cNvPr id="24" name="TextBox 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2945,7 +2999,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -3048,7 +3102,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -3115,11 +3169,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3362325" cy="561976"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="TextBox 24"/>
+            <xdr:cNvPr id="25" name="TextBox 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3176,7 +3236,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -3279,7 +3339,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -3341,9 +3401,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3353,13 +3413,19 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="514350"/>
-          <a:ext cx="1628775" cy="3829050"/>
+          <a:off x="8724900" y="495300"/>
+          <a:ext cx="1123950" cy="3705225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3393,11 +3459,17 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2353880" cy="645950"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="TextBox 33"/>
+            <xdr:cNvPr id="34" name="TextBox 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3455,7 +3527,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1800" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -3470,7 +3542,7 @@
                         <m:dPr>
                           <m:ctrlPr>
                             <a:rPr lang="en-US" sz="1800" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:dPr>
@@ -3559,7 +3631,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33"/>
@@ -3639,11 +3711,17 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2990850" cy="645950"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="TextBox 34"/>
+            <xdr:cNvPr id="35" name="TextBox 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3728,7 +3806,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="2800" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -3801,7 +3879,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34"/>
@@ -3915,7 +3993,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3962,7 +4046,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4002,11 +4092,17 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1819275" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="TextBox 51"/>
+            <xdr:cNvPr id="52" name="TextBox 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4064,7 +4160,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -4155,7 +4251,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51"/>
@@ -4236,7 +4332,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4276,11 +4378,17 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1790700" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="TextBox 59"/>
+            <xdr:cNvPr id="60" name="TextBox 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4338,7 +4446,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -4429,7 +4537,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="60" name="TextBox 59"/>
@@ -4503,11 +4611,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="61" name="TextBox 60"/>
+            <xdr:cNvPr id="61" name="TextBox 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4565,7 +4679,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -4656,7 +4770,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="TextBox 60"/>
@@ -4730,11 +4844,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="62" name="TextBox 61"/>
+            <xdr:cNvPr id="62" name="TextBox 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4792,7 +4912,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -4883,7 +5003,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="62" name="TextBox 61"/>
@@ -4964,7 +5084,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5004,11 +5130,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="66" name="TextBox 65"/>
+            <xdr:cNvPr id="66" name="TextBox 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5066,7 +5198,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -5157,7 +5289,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="TextBox 65"/>
@@ -5231,11 +5363,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="67" name="TextBox 66"/>
+            <xdr:cNvPr id="67" name="TextBox 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5293,7 +5431,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -5384,7 +5522,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="67" name="TextBox 66"/>
@@ -5458,11 +5596,17 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="68" name="TextBox 67"/>
+            <xdr:cNvPr id="68" name="TextBox 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5520,7 +5664,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -5611,7 +5755,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="68" name="TextBox 67"/>
@@ -5685,11 +5829,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="69" name="TextBox 68"/>
+            <xdr:cNvPr id="69" name="TextBox 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5747,7 +5897,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -5838,7 +5988,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="69" name="TextBox 68"/>
@@ -5912,11 +6062,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="70" name="TextBox 69"/>
+            <xdr:cNvPr id="70" name="TextBox 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5974,7 +6130,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -6065,7 +6221,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="70" name="TextBox 69"/>
@@ -6139,11 +6295,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="71" name="TextBox 70"/>
+            <xdr:cNvPr id="71" name="TextBox 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6201,7 +6363,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -6292,7 +6454,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="71" name="TextBox 70"/>
@@ -6366,11 +6528,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="72" name="TextBox 71"/>
+            <xdr:cNvPr id="72" name="TextBox 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6428,7 +6596,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -6519,7 +6687,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="72" name="TextBox 71"/>
@@ -6593,11 +6761,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="73" name="TextBox 72"/>
+            <xdr:cNvPr id="73" name="TextBox 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6655,7 +6829,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -6746,7 +6920,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="73" name="TextBox 72"/>
@@ -6820,11 +6994,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="74" name="TextBox 73"/>
+            <xdr:cNvPr id="74" name="TextBox 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6882,7 +7062,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -6973,7 +7153,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73"/>
@@ -7047,11 +7227,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="75" name="TextBox 74"/>
+            <xdr:cNvPr id="75" name="TextBox 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7109,7 +7295,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -7200,7 +7386,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="75" name="TextBox 74"/>
@@ -7274,11 +7460,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="TextBox 76"/>
+            <xdr:cNvPr id="77" name="TextBox 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7336,7 +7528,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -7427,7 +7619,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="TextBox 76"/>
@@ -7501,11 +7693,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="TextBox 77"/>
+            <xdr:cNvPr id="78" name="TextBox 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7563,7 +7761,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -7654,7 +7852,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77"/>
@@ -7728,11 +7926,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="79" name="TextBox 78"/>
+            <xdr:cNvPr id="79" name="TextBox 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7790,7 +7994,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -7881,7 +8085,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78"/>
@@ -7955,11 +8159,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="TextBox 79"/>
+            <xdr:cNvPr id="80" name="TextBox 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8017,7 +8227,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -8108,7 +8318,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79"/>
@@ -8182,11 +8392,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="81" name="TextBox 80"/>
+            <xdr:cNvPr id="81" name="TextBox 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8244,7 +8460,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -8335,7 +8551,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80"/>
@@ -8409,11 +8625,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="TextBox 81"/>
+            <xdr:cNvPr id="82" name="TextBox 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8471,7 +8693,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -8562,7 +8784,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81"/>
@@ -8643,7 +8865,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8690,7 +8918,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Straight Arrow Connector 86"/>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8726,9 +8960,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8766,7 +9000,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8838,7 +9072,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9011,11 +9245,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:CP3660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9044,23 +9278,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
     </row>
     <row r="2" spans="2:89" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -9093,20 +9327,20 @@
       <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="28"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="4" spans="2:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -9121,7 +9355,7 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -9136,26 +9370,26 @@
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="45"/>
-      <c r="AV4" s="52"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="77"/>
+      <c r="AV4" s="33"/>
     </row>
     <row r="5" spans="2:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -9170,7 +9404,7 @@
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -9185,25 +9419,25 @@
       <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="19">
         <v>1</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="48"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="72"/>
     </row>
     <row r="6" spans="2:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -9218,7 +9452,7 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -9233,25 +9467,25 @@
       <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="19">
         <v>2</v>
       </c>
-      <c r="P6" s="46" t="s">
+      <c r="P6" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="72"/>
     </row>
     <row r="7" spans="2:89" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -9266,7 +9500,7 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -9281,26 +9515,26 @@
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
         <v>3</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="48"/>
-      <c r="AU7" s="90"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="72"/>
+      <c r="AU7" s="61"/>
     </row>
     <row r="8" spans="2:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -9315,7 +9549,7 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -9330,25 +9564,25 @@
       <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>4</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="72"/>
     </row>
     <row r="9" spans="2:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -9363,7 +9597,7 @@
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -9378,10 +9612,10 @@
       <c r="J9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9398,7 +9632,7 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -9413,13 +9647,13 @@
       <c r="J10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AU10" s="28" t="s">
+      <c r="AU10" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -9436,7 +9670,7 @@
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -9451,40 +9685,40 @@
       <c r="J11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="P11" s="49" t="s">
+      <c r="P11" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="U11" s="49" t="s">
+      <c r="U11" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="AF11" s="49" t="s">
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="AF11" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="AL11" s="49" t="s">
+      <c r="AL11" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AU11" s="49" t="s">
+      <c r="AU11" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="BD11" s="49" t="s">
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="BD11" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="BY11" s="49" t="s">
+      <c r="BY11" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="CG11" s="49" t="s">
+      <c r="CG11" s="31" t="s">
         <v>188</v>
       </c>
     </row>
@@ -9501,7 +9735,7 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -9516,60 +9750,60 @@
       <c r="J12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28" t="s">
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="AF12" s="73" t="s">
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="AF12" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="73" t="s">
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AU12" s="28" t="s">
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AU12" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="BD12" s="28" t="s">
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="BD12" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="BE12" s="28"/>
-      <c r="BF12" s="28"/>
-      <c r="BG12" s="28"/>
-      <c r="BH12" s="28"/>
-      <c r="BY12" s="28" t="s">
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BY12" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="BZ12" s="28"/>
-      <c r="CA12" s="28"/>
-      <c r="CB12" s="28"/>
-      <c r="CG12" s="53" t="s">
+      <c r="BZ12" s="23"/>
+      <c r="CA12" s="23"/>
+      <c r="CB12" s="23"/>
+      <c r="CG12" s="34" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9586,7 +9820,7 @@
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -9601,29 +9835,29 @@
       <c r="J13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="AU13" s="87"/>
-      <c r="BD13" s="28" t="s">
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="AU13" s="59"/>
+      <c r="BD13" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="BY13" s="28" t="s">
+      <c r="BY13" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="CG13" s="28" t="s">
+      <c r="CG13" s="23" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9640,7 +9874,7 @@
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -9655,55 +9889,55 @@
       <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P14" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="55" t="s">
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="28"/>
-      <c r="AG14" s="20" t="s">
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="23"/>
+      <c r="AG14" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="AH14" s="20" t="s">
+      <c r="AH14" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="AI14" s="20" t="s">
+      <c r="AI14" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="AJ14" s="28"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="85"/>
-      <c r="AU14" s="91" t="s">
+      <c r="AJ14" s="23"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AU14" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AV14" s="49" t="s">
+      <c r="AV14" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AZ14" s="77" t="s">
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="31"/>
+      <c r="AZ14" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="BA14" s="49" t="s">
+      <c r="BA14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="BB14" s="49"/>
+      <c r="BB14" s="31"/>
     </row>
     <row r="15" spans="2:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -9718,7 +9952,7 @@
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -9733,88 +9967,88 @@
       <c r="J15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="57" t="s">
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="57" t="s">
+      <c r="V15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="57" t="s">
+      <c r="W15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="28"/>
-      <c r="AG15" s="20">
+      <c r="X15" s="23"/>
+      <c r="AG15" s="19">
         <v>1</v>
       </c>
-      <c r="AH15" s="75">
+      <c r="AH15" s="53">
         <v>0.48780499999999999</v>
       </c>
       <c r="AI15" s="7">
         <v>36</v>
       </c>
-      <c r="AM15" s="28" t="s">
+      <c r="AM15" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="28" t="s">
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="AW15" s="28"/>
-      <c r="BA15" s="28" t="s">
+      <c r="AW15" s="23"/>
+      <c r="BA15" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="BB15" s="28"/>
-      <c r="BD15" s="18" t="s">
+      <c r="BB15" s="23"/>
+      <c r="BD15" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="BE15" s="28" t="s">
+      <c r="BE15" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="BF15" s="28"/>
-      <c r="BG15" s="28"/>
-      <c r="BI15" s="18" t="s">
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BI15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="BJ15" s="28" t="s">
+      <c r="BJ15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="BK15" s="28"/>
-      <c r="BN15" s="18" t="s">
+      <c r="BK15" s="23"/>
+      <c r="BN15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="BO15" s="28" t="s">
+      <c r="BO15" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="BP15" s="28"/>
-      <c r="BQ15" s="28"/>
-      <c r="BS15" s="18" t="s">
+      <c r="BP15" s="23"/>
+      <c r="BQ15" s="23"/>
+      <c r="BS15" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="BT15" s="28" t="s">
+      <c r="BT15" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="BY15" s="34" t="s">
+      <c r="BY15" s="28" t="s">
         <v>71</v>
       </c>
       <c r="BZ15" t="s">
         <v>169</v>
       </c>
-      <c r="CH15" s="92" t="s">
+      <c r="CH15" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="CI15" s="92"/>
-      <c r="CJ15" s="92"/>
+      <c r="CI15" s="85"/>
+      <c r="CJ15" s="85"/>
     </row>
     <row r="16" spans="2:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -9829,7 +10063,7 @@
       <c r="E16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -9844,68 +10078,68 @@
       <c r="J16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="P16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="R16" s="50"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="20">
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="19">
         <v>1</v>
       </c>
-      <c r="V16" s="58" t="s">
+      <c r="V16" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="W16" s="59" t="s">
+      <c r="W16" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="51" t="s">
+      <c r="X16" s="23"/>
+      <c r="Y16" s="32" t="s">
         <v>143</v>
       </c>
       <c r="Z16" s="1"/>
-      <c r="AG16" s="20">
+      <c r="AG16" s="19">
         <v>2</v>
       </c>
-      <c r="AH16" s="75">
+      <c r="AH16" s="53">
         <v>0.24390200000000001</v>
       </c>
       <c r="AI16" s="7">
         <v>36</v>
       </c>
-      <c r="AU16" s="40"/>
-      <c r="AV16" s="28" t="s">
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="AW16" s="28">
+      <c r="AW16" s="23">
         <f xml:space="preserve"> 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="BA16" s="28" t="s">
+      <c r="BA16" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="BB16" s="28">
+      <c r="BB16" s="23">
         <v>0.25</v>
       </c>
-      <c r="BY16" s="34"/>
+      <c r="BY16" s="28"/>
       <c r="BZ16" t="s">
         <v>185</v>
       </c>
-      <c r="CH16" s="93" t="s">
+      <c r="CH16" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="CI16" s="93"/>
-      <c r="CJ16" s="93"/>
-      <c r="CK16" s="94" t="s">
+      <c r="CI16" s="86"/>
+      <c r="CJ16" s="86"/>
+      <c r="CK16" s="63" t="s">
         <v>96</v>
       </c>
     </row>
@@ -9922,7 +10156,7 @@
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -9937,58 +10171,58 @@
       <c r="J17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="25" t="s">
         <v>62</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R17" s="50"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="20">
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="19">
         <v>2</v>
       </c>
-      <c r="V17" s="60" t="s">
+      <c r="V17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="W17" s="59" t="s">
+      <c r="W17" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="X17" s="28"/>
+      <c r="X17" s="23"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AG17" s="20">
+      <c r="AG17" s="19">
         <v>3</v>
       </c>
-      <c r="AH17" s="75">
+      <c r="AH17" s="53">
         <v>0.268293</v>
       </c>
-      <c r="AI17" s="74">
+      <c r="AI17" s="7">
         <v>36</v>
       </c>
-      <c r="AM17" s="49" t="s">
+      <c r="AM17" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="28" t="s">
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="AW17" s="28"/>
-      <c r="BA17" s="28" t="s">
+      <c r="AW17" s="23"/>
+      <c r="BA17" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="BB17" s="28"/>
-      <c r="BY17" s="34"/>
+      <c r="BB17" s="23"/>
+      <c r="BY17" s="28"/>
       <c r="BZ17">
         <v>0.25</v>
       </c>
@@ -9996,15 +10230,15 @@
         <f>BF21*BF27*BF33*BF40*BF45</f>
         <v>8.9950249738416299E-4</v>
       </c>
-      <c r="CH17" s="95" t="s">
+      <c r="CH17" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="CI17" s="96"/>
-      <c r="CJ17" s="96"/>
-      <c r="CK17" s="97">
+      <c r="CI17" s="65"/>
+      <c r="CJ17" s="65"/>
+      <c r="CK17" s="66">
         <v>2.2487599999999999E-4</v>
       </c>
-      <c r="CL17" s="32"/>
+      <c r="CL17" s="26"/>
     </row>
     <row r="18" spans="2:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -10019,7 +10253,7 @@
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -10034,45 +10268,44 @@
       <c r="J18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="R18" s="50"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="20">
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="19">
         <v>3</v>
       </c>
-      <c r="V18" s="61" t="s">
+      <c r="V18" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="59" t="s">
+      <c r="W18" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="X18" s="28"/>
-      <c r="AG18" s="81"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="83"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="18">
+      <c r="X18" s="23"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="57"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="17">
         <v>1</v>
       </c>
-      <c r="AW18" s="28" t="s">
+      <c r="AW18" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="BA18" s="18">
+      <c r="BA18" s="17">
         <v>1</v>
       </c>
-      <c r="BB18" s="28" t="s">
+      <c r="BB18" s="23" t="s">
         <v>175</v>
       </c>
       <c r="BF18">
@@ -10099,18 +10332,18 @@
       <c r="BV18">
         <v>0.25</v>
       </c>
-      <c r="BY18" s="34"/>
-      <c r="BZ18" s="38">
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="78">
         <f>BZ17*CA17</f>
         <v>2.2487562434604075E-4</v>
       </c>
-      <c r="CA18" s="38"/>
-      <c r="CH18" s="98" t="s">
+      <c r="CA18" s="78"/>
+      <c r="CH18" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="CI18" s="98"/>
-      <c r="CJ18" s="98"/>
-      <c r="CK18" s="96">
+      <c r="CI18" s="87"/>
+      <c r="CJ18" s="87"/>
+      <c r="CK18" s="65">
         <v>2.31122E-4</v>
       </c>
     </row>
@@ -10127,7 +10360,7 @@
       <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -10142,40 +10375,39 @@
       <c r="J19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="25" t="s">
         <v>66</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="U19" s="20">
+      <c r="U19" s="19">
         <v>4</v>
       </c>
-      <c r="V19" s="60" t="s">
+      <c r="V19" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="W19" s="59" t="s">
+      <c r="W19" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="X19" s="28"/>
-      <c r="AU19" s="32"/>
-      <c r="AV19" s="18">
+      <c r="X19" s="23"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="17">
         <v>2</v>
       </c>
-      <c r="AW19" s="28" t="s">
+      <c r="AW19" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="BA19" s="18">
+      <c r="BA19" s="17">
         <v>2</v>
       </c>
-      <c r="BB19" s="28" t="s">
+      <c r="BB19" s="23" t="s">
         <v>175</v>
       </c>
       <c r="BF19">
@@ -10194,18 +10426,18 @@
         <f>BU18*BV18</f>
         <v>9.25</v>
       </c>
-      <c r="BY19" s="34" t="s">
+      <c r="BY19" s="28" t="s">
         <v>93</v>
       </c>
       <c r="BZ19" t="s">
         <v>63</v>
       </c>
-      <c r="CH19" s="99" t="s">
+      <c r="CH19" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="CI19" s="96"/>
-      <c r="CJ19" s="96"/>
-      <c r="CK19" s="96">
+      <c r="CI19" s="65"/>
+      <c r="CJ19" s="65"/>
+      <c r="CK19" s="65">
         <v>2.31122E-4</v>
       </c>
     </row>
@@ -10222,7 +10454,7 @@
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -10237,39 +10469,39 @@
       <c r="J20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="19">
         <v>5</v>
       </c>
-      <c r="V20" s="60" t="s">
+      <c r="V20" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="W20" s="59" t="s">
+      <c r="W20" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="X20" s="28"/>
+      <c r="X20" s="23"/>
       <c r="AA20">
         <v>7</v>
       </c>
       <c r="AB20">
         <v>36</v>
       </c>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="18">
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="17">
         <v>3</v>
       </c>
-      <c r="AW20" s="28" t="s">
+      <c r="AW20" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="BA20" s="18">
+      <c r="BA20" s="17">
         <v>3</v>
       </c>
-      <c r="BB20" s="28" t="s">
+      <c r="BB20" s="23" t="s">
         <v>175</v>
       </c>
       <c r="BF20">
@@ -10284,16 +10516,16 @@
       <c r="BU20">
         <v>37</v>
       </c>
-      <c r="BY20" s="34"/>
+      <c r="BY20" s="28"/>
       <c r="BZ20" t="s">
         <v>185</v>
       </c>
-      <c r="CH20" s="100" t="s">
+      <c r="CH20" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="CI20" s="100"/>
-      <c r="CJ20" s="100"/>
-      <c r="CK20" s="96">
+      <c r="CI20" s="88"/>
+      <c r="CJ20" s="88"/>
+      <c r="CK20" s="65">
         <v>2.31122E-4</v>
       </c>
     </row>
@@ -10310,7 +10542,7 @@
       <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -10325,64 +10557,62 @@
       <c r="J21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O21" s="76"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="12"/>
-      <c r="U21" s="20">
+      <c r="U21" s="19">
         <v>6</v>
       </c>
-      <c r="V21" s="60" t="s">
+      <c r="V21" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="W21" s="59" t="s">
+      <c r="W21" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="X21" s="28"/>
-      <c r="AA21" s="38">
+      <c r="X21" s="23"/>
+      <c r="AA21" s="78">
         <f>AA20/AB20</f>
         <v>0.19444444444444445</v>
       </c>
-      <c r="AB21" s="38"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="18">
+      <c r="AB21" s="78"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="17">
         <v>4</v>
       </c>
-      <c r="AW21" s="28" t="s">
+      <c r="AW21" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="BA21" s="18">
+      <c r="BA21" s="17">
         <v>4</v>
       </c>
-      <c r="BB21" s="28" t="s">
+      <c r="BB21" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="BF21" s="38">
+      <c r="BF21" s="78">
         <f>BF19/BF20</f>
         <v>0.25</v>
       </c>
-      <c r="BG21" s="38"/>
-      <c r="BK21" s="38">
+      <c r="BG21" s="78"/>
+      <c r="BK21" s="78">
         <f>BK19/BK20</f>
         <v>0.25</v>
       </c>
-      <c r="BL21" s="38"/>
-      <c r="BP21" s="38">
+      <c r="BL21" s="78"/>
+      <c r="BP21" s="78">
         <f>BP19/BP20</f>
         <v>0.25</v>
       </c>
-      <c r="BQ21" s="38"/>
-      <c r="BU21" s="38">
+      <c r="BQ21" s="78"/>
+      <c r="BU21" s="78">
         <f>BU19/BU20</f>
         <v>0.25</v>
       </c>
-      <c r="BV21" s="38"/>
-      <c r="BY21" s="34"/>
+      <c r="BV21" s="78"/>
+      <c r="BY21" s="28"/>
       <c r="BZ21">
         <v>0.25</v>
       </c>
@@ -10390,7 +10620,7 @@
         <f>BK21*BK27*BK33*BK40*BK45</f>
         <v>9.2448867786705633E-4</v>
       </c>
-      <c r="CG21" s="32"/>
+      <c r="CG21" s="26"/>
     </row>
     <row r="22" spans="2:94" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -10405,7 +10635,7 @@
       <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -10420,62 +10650,62 @@
       <c r="J22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="19">
         <v>7</v>
       </c>
-      <c r="V22" s="60" t="s">
+      <c r="V22" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="W22" s="59" t="s">
+      <c r="W22" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="X22" s="28"/>
-      <c r="AM22" s="28" t="s">
+      <c r="X22" s="23"/>
+      <c r="AM22" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
-      <c r="AU22" s="32"/>
-      <c r="AV22" s="18">
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="17">
         <v>5</v>
       </c>
-      <c r="AW22" s="28" t="s">
+      <c r="AW22" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="BA22" s="34">
+      <c r="BA22" s="28">
         <v>5</v>
       </c>
       <c r="BB22" t="s">
         <v>176</v>
       </c>
-      <c r="BY22" s="34"/>
-      <c r="BZ22" s="38">
+      <c r="BY22" s="28"/>
+      <c r="BZ22" s="78">
         <f>BZ21*CA21</f>
         <v>2.3112216946676408E-4</v>
       </c>
-      <c r="CA22" s="38"/>
-      <c r="CH22" s="102" t="s">
+      <c r="CA22" s="78"/>
+      <c r="CH22" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="CI22" s="102"/>
-      <c r="CJ22" s="102"/>
-      <c r="CK22" s="102"/>
-      <c r="CL22" s="102"/>
-      <c r="CM22" s="102"/>
-      <c r="CN22" s="102"/>
-      <c r="CO22" s="103"/>
-      <c r="CP22" s="103"/>
+      <c r="CI22" s="68"/>
+      <c r="CJ22" s="68"/>
+      <c r="CK22" s="68"/>
+      <c r="CL22" s="68"/>
+      <c r="CM22" s="68"/>
+      <c r="CN22" s="68"/>
+      <c r="CO22" s="69"/>
+      <c r="CP22" s="69"/>
     </row>
     <row r="23" spans="2:94" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
@@ -10490,7 +10720,7 @@
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -10505,66 +10735,66 @@
       <c r="J23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="19">
         <v>8</v>
       </c>
-      <c r="V23" s="62" t="s">
+      <c r="V23" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="63" t="s">
+      <c r="W23" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="X23" s="28"/>
+      <c r="X23" s="23"/>
       <c r="AH23">
         <v>0.48780499999999999</v>
       </c>
       <c r="AI23">
         <v>36</v>
       </c>
-      <c r="AM23" s="28" t="s">
+      <c r="AM23" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AU23" s="91" t="s">
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AU23" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="AV23" s="49" t="s">
+      <c r="AV23" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AZ23" s="77" t="s">
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AZ23" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="BA23" s="49" t="s">
+      <c r="BA23" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="BY23" s="34" t="s">
+      <c r="BY23" s="28" t="s">
         <v>186</v>
       </c>
       <c r="BZ23" t="s">
         <v>65</v>
       </c>
-      <c r="CH23" s="102" t="s">
+      <c r="CH23" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="CI23" s="102"/>
-      <c r="CJ23" s="102"/>
-      <c r="CK23" s="102"/>
-      <c r="CL23" s="102"/>
-      <c r="CM23" s="102"/>
-      <c r="CN23" s="102"/>
-      <c r="CO23" s="103"/>
-      <c r="CP23" s="103"/>
+      <c r="CI23" s="68"/>
+      <c r="CJ23" s="68"/>
+      <c r="CK23" s="68"/>
+      <c r="CL23" s="68"/>
+      <c r="CM23" s="68"/>
+      <c r="CN23" s="68"/>
+      <c r="CO23" s="69"/>
+      <c r="CP23" s="69"/>
     </row>
     <row r="24" spans="2:94" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -10579,7 +10809,7 @@
       <c r="E24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -10594,50 +10824,50 @@
       <c r="J24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="78" t="s">
+      <c r="N24" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="O24" s="78"/>
-      <c r="U24" s="20">
+      <c r="O24" s="83"/>
+      <c r="U24" s="19">
         <v>9</v>
       </c>
-      <c r="V24" s="80" t="s">
+      <c r="V24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="W24" s="63" t="s">
+      <c r="W24" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="49" t="s">
+      <c r="X24" s="23"/>
+      <c r="Y24" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AH24" s="38">
+      <c r="AH24" s="78">
         <f>AH15/AI15</f>
         <v>1.3550138888888889E-2</v>
       </c>
-      <c r="AI24" s="38"/>
-      <c r="AM24" s="28" t="s">
+      <c r="AI24" s="78"/>
+      <c r="AM24" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="28" t="s">
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="AW24" s="28"/>
-      <c r="BA24" s="28" t="s">
+      <c r="AW24" s="23"/>
+      <c r="BA24" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="BB24" s="28"/>
+      <c r="BB24" s="23"/>
       <c r="BF24">
         <v>37</v>
       </c>
@@ -10662,17 +10892,17 @@
       <c r="BV24">
         <v>0.25</v>
       </c>
-      <c r="BY24" s="34"/>
+      <c r="BY24" s="28"/>
       <c r="BZ24" t="s">
         <v>185</v>
       </c>
-      <c r="CH24" s="101"/>
-      <c r="CI24" s="101"/>
-      <c r="CJ24" s="101"/>
-      <c r="CK24" s="101"/>
-      <c r="CL24" s="101"/>
-      <c r="CM24" s="101"/>
-      <c r="CN24" s="101"/>
+      <c r="CH24" s="23"/>
+      <c r="CI24" s="23"/>
+      <c r="CJ24" s="23"/>
+      <c r="CK24" s="23"/>
+      <c r="CL24" s="23"/>
+      <c r="CM24" s="23"/>
+      <c r="CN24" s="23"/>
     </row>
     <row r="25" spans="2:94" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -10687,7 +10917,7 @@
       <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -10702,45 +10932,45 @@
       <c r="J25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="N25" s="79" t="s">
+      <c r="N25" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="U25" s="20">
+      <c r="U25" s="19">
         <v>10</v>
       </c>
-      <c r="V25" s="62" t="s">
+      <c r="V25" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="W25" s="63" t="s">
+      <c r="W25" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="AM25" s="28" t="s">
+      <c r="AM25" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="28" t="s">
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="AW25" s="28">
+      <c r="AW25" s="23">
         <v>0.25</v>
       </c>
-      <c r="BA25" s="28" t="s">
+      <c r="BA25" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="BB25" s="28">
+      <c r="BB25" s="23">
         <v>0.25</v>
       </c>
       <c r="BF25">
@@ -10759,7 +10989,7 @@
         <f>BU24*BV24</f>
         <v>9</v>
       </c>
-      <c r="BY25" s="34"/>
+      <c r="BY25" s="28"/>
       <c r="BZ25">
         <v>0.25</v>
       </c>
@@ -10781,7 +11011,7 @@
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -10796,43 +11026,43 @@
       <c r="J26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="19" t="s">
         <v>120</v>
       </c>
       <c r="O26" s="7">
         <f>COUNTIF(L4:L44,N26)/COUNTA(L4:L44)</f>
         <v>0.48780487804878048</v>
       </c>
-      <c r="U26" s="20">
+      <c r="U26" s="19">
         <v>11</v>
       </c>
-      <c r="V26" s="62" t="s">
+      <c r="V26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="W26" s="63" t="s">
+      <c r="W26" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="AM26" s="28" t="s">
+      <c r="AM26" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AV26" s="28" t="s">
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AV26" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="AW26" s="28"/>
-      <c r="BA26" s="28" t="s">
+      <c r="AW26" s="23"/>
+      <c r="BA26" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="BB26" s="28"/>
+      <c r="BB26" s="23"/>
       <c r="BF26">
         <v>37</v>
       </c>
@@ -10845,12 +11075,12 @@
       <c r="BU26">
         <v>37</v>
       </c>
-      <c r="BY26" s="34"/>
-      <c r="BZ26" s="38">
+      <c r="BY26" s="28"/>
+      <c r="BZ26" s="78">
         <f>BZ25*CA25</f>
         <v>2.3112216946676408E-4</v>
       </c>
-      <c r="CA26" s="38"/>
+      <c r="CA26" s="78"/>
     </row>
     <row r="27" spans="2:94" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
@@ -10865,7 +11095,7 @@
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -10880,61 +11110,61 @@
       <c r="J27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="19" t="s">
         <v>121</v>
       </c>
       <c r="O27" s="7">
         <f>COUNTIF(L4:L44,N27)/COUNTA(L4:L44)</f>
         <v>0.24390243902439024</v>
       </c>
-      <c r="U27" s="20">
+      <c r="U27" s="19">
         <v>12</v>
       </c>
-      <c r="V27" s="62" t="s">
+      <c r="V27" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="W27" s="63" t="s">
+      <c r="W27" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="AV27" s="18">
+      <c r="AV27" s="17">
         <v>1</v>
       </c>
-      <c r="AW27" s="28" t="s">
+      <c r="AW27" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="BA27" s="18">
+      <c r="BA27" s="17">
         <v>1</v>
       </c>
-      <c r="BB27" s="28" t="s">
+      <c r="BB27" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="BF27" s="38">
+      <c r="BF27" s="78">
         <f>BF25/BF26</f>
         <v>0.25</v>
       </c>
-      <c r="BG27" s="38"/>
-      <c r="BK27" s="38">
+      <c r="BG27" s="78"/>
+      <c r="BK27" s="78">
         <f>BK25/BK26</f>
         <v>0.25</v>
       </c>
-      <c r="BL27" s="38"/>
-      <c r="BP27" s="38">
+      <c r="BL27" s="78"/>
+      <c r="BP27" s="78">
         <f>BP25/BP26</f>
         <v>0.25</v>
       </c>
-      <c r="BQ27" s="38"/>
-      <c r="BU27" s="38">
+      <c r="BQ27" s="78"/>
+      <c r="BU27" s="78">
         <f>BU25/BU26</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BV27" s="38"/>
-      <c r="BY27" s="34" t="s">
+      <c r="BV27" s="78"/>
+      <c r="BY27" s="28" t="s">
         <v>187</v>
       </c>
       <c r="BZ27" t="s">
@@ -10954,7 +11184,7 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -10969,44 +11199,44 @@
       <c r="J28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="19" t="s">
         <v>119</v>
       </c>
       <c r="O28" s="7">
         <f>COUNTIF(L4:L44,N28)/COUNTA(L4:L44)</f>
         <v>0.26829268292682928</v>
       </c>
-      <c r="U28" s="20">
+      <c r="U28" s="19">
         <v>13</v>
       </c>
-      <c r="V28" s="62" t="s">
+      <c r="V28" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="W28" s="63" t="s">
+      <c r="W28" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="AM28" s="49" t="s">
+      <c r="AM28" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="AV28" s="18">
+      <c r="AV28" s="17">
         <v>2</v>
       </c>
-      <c r="AW28" s="28" t="s">
+      <c r="AW28" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="BA28" s="18">
+      <c r="BA28" s="17">
         <v>2</v>
       </c>
-      <c r="BB28" s="28" t="s">
+      <c r="BB28" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="BY28" s="34"/>
+      <c r="BY28" s="28"/>
       <c r="BZ28" t="s">
         <v>185</v>
       </c>
@@ -11024,7 +11254,7 @@
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -11039,21 +11269,21 @@
       <c r="J29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="27"/>
-      <c r="U29" s="20">
+      <c r="N29" s="19"/>
+      <c r="O29" s="7"/>
+      <c r="U29" s="19">
         <v>14</v>
       </c>
-      <c r="V29" s="62" t="s">
+      <c r="V29" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="W29" s="63" t="s">
+      <c r="W29" s="42" t="s">
         <v>88</v>
       </c>
       <c r="AA29">
@@ -11068,16 +11298,16 @@
       <c r="AI29">
         <v>36</v>
       </c>
-      <c r="AV29" s="18">
+      <c r="AV29" s="17">
         <v>3</v>
       </c>
-      <c r="AW29" s="28" t="s">
+      <c r="AW29" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="BA29" s="18">
+      <c r="BA29" s="17">
         <v>3</v>
       </c>
-      <c r="BB29" s="28" t="s">
+      <c r="BB29" s="23" t="s">
         <v>176</v>
       </c>
       <c r="BZ29">
@@ -11101,7 +11331,7 @@
       <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -11116,55 +11346,54 @@
       <c r="J30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="O30" s="23"/>
-      <c r="U30" s="20">
+      <c r="U30" s="19">
         <v>15</v>
       </c>
-      <c r="V30" s="62" t="s">
+      <c r="V30" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="W30" s="63" t="s">
+      <c r="W30" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="AA30" s="38">
+      <c r="AA30" s="78">
         <f>AA29/AB29</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="AB30" s="38"/>
-      <c r="AH30" s="38">
+      <c r="AB30" s="78"/>
+      <c r="AH30" s="78">
         <f>AH29/AI29</f>
         <v>6.7750555555555559E-3</v>
       </c>
-      <c r="AI30" s="38"/>
-      <c r="AM30" s="18">
+      <c r="AI30" s="78"/>
+      <c r="AM30" s="17">
         <v>1</v>
       </c>
-      <c r="AN30" s="28" t="s">
+      <c r="AN30" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="28"/>
-      <c r="AR30" s="28"/>
-      <c r="AS30" s="28"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="18">
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
+      <c r="AS30" s="23"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="17">
         <v>4</v>
       </c>
-      <c r="AW30" s="28" t="s">
+      <c r="AW30" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="BA30" s="18">
+      <c r="BA30" s="17">
         <v>4</v>
       </c>
-      <c r="BB30" s="28" t="s">
+      <c r="BB30" s="23" t="s">
         <v>175</v>
       </c>
       <c r="BF30">
@@ -11191,11 +11420,11 @@
       <c r="BV30">
         <v>0.25</v>
       </c>
-      <c r="BZ30" s="38">
+      <c r="BZ30" s="78">
         <f>BZ29*CA29</f>
         <v>2.3112216946676408E-4</v>
       </c>
-      <c r="CA30" s="38"/>
+      <c r="CA30" s="78"/>
     </row>
     <row r="31" spans="2:94" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
@@ -11210,7 +11439,7 @@
       <c r="E31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -11225,45 +11454,45 @@
       <c r="J31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="L31" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="85"/>
-      <c r="U31" s="20">
+      <c r="N31" s="17"/>
+      <c r="U31" s="19">
         <v>16</v>
       </c>
-      <c r="V31" s="62" t="s">
+      <c r="V31" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="W31" s="63" t="s">
+      <c r="W31" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="AM31" s="18">
+      <c r="AM31" s="17">
         <v>2</v>
       </c>
-      <c r="AN31" s="28" t="s">
+      <c r="AN31" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="18">
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23"/>
+      <c r="AS31" s="23"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="17">
         <v>5</v>
       </c>
-      <c r="AW31" s="28" t="s">
+      <c r="AW31" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="BA31" s="18">
+      <c r="BA31" s="17">
         <v>5</v>
       </c>
-      <c r="BB31" s="28" t="s">
+      <c r="BB31" s="23" t="s">
         <v>175</v>
       </c>
       <c r="BF31">
@@ -11296,7 +11525,7 @@
       <c r="E32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -11311,38 +11540,38 @@
       <c r="J32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="L32" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="85"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="U32" s="20">
+      <c r="N32" s="17"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="U32" s="19">
         <v>17</v>
       </c>
-      <c r="V32" s="62" t="s">
+      <c r="V32" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="W32" s="63" t="s">
+      <c r="W32" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AM32" s="18">
+      <c r="AM32" s="17">
         <v>3</v>
       </c>
-      <c r="AN32" s="28" t="s">
+      <c r="AN32" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
       <c r="BF32">
         <v>37</v>
       </c>
@@ -11369,7 +11598,7 @@
       <c r="E33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -11384,58 +11613,58 @@
       <c r="J33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N33" s="85"/>
+      <c r="N33" s="17"/>
       <c r="U33" s="5">
         <v>18</v>
       </c>
-      <c r="V33" s="64" t="s">
+      <c r="V33" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W33" s="65" t="s">
+      <c r="W33" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="Y33" s="54" t="s">
+      <c r="Y33" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AM33" s="86">
+      <c r="AM33" s="58">
         <v>4</v>
       </c>
-      <c r="AN33" s="53" t="s">
+      <c r="AN33" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="28"/>
-      <c r="AR33" s="28"/>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="BF33" s="38">
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="BF33" s="78">
         <f>BF31/BF32</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BG33" s="38"/>
-      <c r="BK33" s="38">
+      <c r="BG33" s="78"/>
+      <c r="BK33" s="78">
         <f>BK31/BK32</f>
         <v>0.25</v>
       </c>
-      <c r="BL33" s="38"/>
-      <c r="BP33" s="38">
+      <c r="BL33" s="78"/>
+      <c r="BP33" s="78">
         <f>BP31/BP32</f>
         <v>0.25</v>
       </c>
-      <c r="BQ33" s="38"/>
-      <c r="BU33" s="38">
+      <c r="BQ33" s="78"/>
+      <c r="BU33" s="78">
         <f>BU31/BU32</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BV33" s="38"/>
+      <c r="BV33" s="78"/>
     </row>
     <row r="34" spans="2:74" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -11450,7 +11679,7 @@
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -11465,20 +11694,20 @@
       <c r="J34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="24" t="s">
+      <c r="L34" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N34" s="85"/>
+      <c r="N34" s="17"/>
       <c r="U34" s="5">
         <v>19</v>
       </c>
-      <c r="V34" s="66" t="s">
+      <c r="V34" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="65" t="s">
+      <c r="W34" s="44" t="s">
         <v>40</v>
       </c>
       <c r="AH34">
@@ -11487,15 +11716,15 @@
       <c r="AI34">
         <v>36</v>
       </c>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
     </row>
     <row r="35" spans="2:74" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -11510,7 +11739,7 @@
       <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -11525,27 +11754,26 @@
       <c r="J35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="U35" s="20">
+      <c r="U35" s="19">
         <v>20</v>
       </c>
-      <c r="V35" s="66" t="s">
+      <c r="V35" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="W35" s="67" t="s">
+      <c r="W35" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="AH35" s="38">
+      <c r="AH35" s="78">
         <f>AH34/AI34</f>
         <v>7.4525833333333336E-3</v>
       </c>
-      <c r="AI35" s="38"/>
+      <c r="AI35" s="78"/>
       <c r="BF35">
         <v>36</v>
       </c>
@@ -11584,7 +11812,7 @@
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -11599,19 +11827,19 @@
       <c r="J36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="5" t="s">
         <v>120</v>
       </c>
       <c r="U36" s="5">
         <v>21</v>
       </c>
-      <c r="V36" s="68" t="s">
+      <c r="V36" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="W36" s="65" t="s">
+      <c r="W36" s="44" t="s">
         <v>100</v>
       </c>
       <c r="AA36">
@@ -11650,7 +11878,7 @@
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -11665,26 +11893,26 @@
       <c r="J37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="5" t="s">
         <v>119</v>
       </c>
       <c r="U37" s="5">
         <v>22</v>
       </c>
-      <c r="V37" s="66" t="s">
+      <c r="V37" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="W37" s="65" t="s">
+      <c r="W37" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AA37" s="38">
+      <c r="AA37" s="78">
         <f>AA36/AB36</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="AB37" s="38"/>
+      <c r="AB37" s="78"/>
       <c r="BF37">
         <v>37</v>
       </c>
@@ -11711,7 +11939,7 @@
       <c r="E38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -11726,19 +11954,19 @@
       <c r="J38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="5" t="s">
         <v>121</v>
       </c>
       <c r="U38" s="5">
         <v>23</v>
       </c>
-      <c r="V38" s="68" t="s">
+      <c r="V38" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="W38" s="65" t="s">
+      <c r="W38" s="44" t="s">
         <v>102</v>
       </c>
     </row>
@@ -11755,7 +11983,7 @@
       <c r="E39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -11770,19 +11998,19 @@
       <c r="J39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="5" t="s">
         <v>120</v>
       </c>
       <c r="U39" s="5">
         <v>24</v>
       </c>
-      <c r="V39" s="69" t="s">
+      <c r="V39" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="W39" s="70" t="s">
+      <c r="W39" s="49" t="s">
         <v>103</v>
       </c>
     </row>
@@ -11799,7 +12027,7 @@
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -11814,41 +12042,41 @@
       <c r="J40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="U40" s="20">
+      <c r="U40" s="19">
         <v>25</v>
       </c>
-      <c r="V40" s="71" t="s">
+      <c r="V40" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="W40" s="70" t="s">
+      <c r="W40" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="BF40" s="38">
+      <c r="BF40" s="78">
         <f>BF36/BF37</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BG40" s="38"/>
-      <c r="BK40" s="38">
+      <c r="BG40" s="78"/>
+      <c r="BK40" s="78">
         <f>BK36/BK37</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BL40" s="38"/>
-      <c r="BP40" s="38">
+      <c r="BL40" s="78"/>
+      <c r="BP40" s="78">
         <f>BP36/BP37</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BQ40" s="38"/>
-      <c r="BU40" s="38">
+      <c r="BQ40" s="78"/>
+      <c r="BU40" s="78">
         <f>BU36/BU37</f>
         <v>0.25</v>
       </c>
-      <c r="BV40" s="38"/>
+      <c r="BV40" s="78"/>
     </row>
     <row r="41" spans="2:74" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
@@ -11863,7 +12091,7 @@
       <c r="E41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -11878,22 +12106,22 @@
       <c r="J41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="K41" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="20">
+      <c r="U41" s="19">
         <v>26</v>
       </c>
-      <c r="V41" s="69" t="s">
+      <c r="V41" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="W41" s="70" t="s">
+      <c r="W41" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="Y41" s="49" t="s">
+      <c r="Y41" s="31" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11910,7 +12138,7 @@
       <c r="E42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -11925,19 +12153,19 @@
       <c r="J42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L42" s="5" t="s">
         <v>120</v>
       </c>
       <c r="U42" s="5">
         <v>27</v>
       </c>
-      <c r="V42" s="71" t="s">
+      <c r="V42" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="W42" s="70" t="s">
+      <c r="W42" s="49" t="s">
         <v>106</v>
       </c>
       <c r="BF42">
@@ -11978,7 +12206,7 @@
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -11993,19 +12221,19 @@
       <c r="J43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="U43" s="20">
+      <c r="U43" s="19">
         <v>28</v>
       </c>
-      <c r="V43" s="71" t="s">
+      <c r="V43" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="W43" s="70" t="s">
+      <c r="W43" s="49" t="s">
         <v>107</v>
       </c>
       <c r="BF43">
@@ -12026,7 +12254,7 @@
       </c>
     </row>
     <row r="44" spans="2:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -12038,10 +12266,10 @@
       <c r="E44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="88" t="s">
+      <c r="G44" s="4" t="s">
         <v>124</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -12053,19 +12281,19 @@
       <c r="J44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="22" t="s">
         <v>15</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="U44" s="20">
+      <c r="U44" s="19">
         <v>29</v>
       </c>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="W44" s="70" t="s">
+      <c r="W44" s="49" t="s">
         <v>73</v>
       </c>
       <c r="BF44">
@@ -12082,44 +12310,44 @@
       </c>
     </row>
     <row r="45" spans="2:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U45" s="20">
+      <c r="U45" s="19">
         <v>30</v>
       </c>
-      <c r="V45" s="69" t="s">
+      <c r="V45" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="W45" s="70" t="s">
+      <c r="W45" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="BF45" s="38">
+      <c r="BF45" s="78">
         <f>BF43/BF44</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BG45" s="38"/>
-      <c r="BK45" s="38">
+      <c r="BG45" s="78"/>
+      <c r="BK45" s="78">
         <f>BK43/BK44</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BL45" s="38"/>
-      <c r="BP45" s="38">
+      <c r="BL45" s="78"/>
+      <c r="BP45" s="78">
         <f>BP43/BP44</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="BQ45" s="38"/>
-      <c r="BU45" s="38">
+      <c r="BQ45" s="78"/>
+      <c r="BU45" s="78">
         <f>BU43/BU44</f>
         <v>0.25</v>
       </c>
-      <c r="BV45" s="38"/>
+      <c r="BV45" s="78"/>
     </row>
     <row r="46" spans="2:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U46" s="20">
+      <c r="U46" s="19">
         <v>31</v>
       </c>
-      <c r="V46" s="71" t="s">
+      <c r="V46" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="W46" s="70" t="s">
+      <c r="W46" s="49" t="s">
         <v>109</v>
       </c>
       <c r="AA46">
@@ -12133,26 +12361,26 @@
       <c r="U47" s="5">
         <v>32</v>
       </c>
-      <c r="V47" s="69" t="s">
+      <c r="V47" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="W47" s="70" t="s">
+      <c r="W47" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="AA47" s="38">
+      <c r="AA47" s="78">
         <f>AA46/AB46</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB47" s="38"/>
+      <c r="AB47" s="78"/>
     </row>
     <row r="48" spans="2:74" ht="31.5" x14ac:dyDescent="0.25">
       <c r="U48" s="5">
         <v>33</v>
       </c>
-      <c r="V48" s="71" t="s">
+      <c r="V48" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="W48" s="70" t="s">
+      <c r="W48" s="49" t="s">
         <v>111</v>
       </c>
     </row>
@@ -12160,10 +12388,10 @@
       <c r="U49" s="5">
         <v>34</v>
       </c>
-      <c r="V49" s="69" t="s">
+      <c r="V49" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="70" t="s">
+      <c r="W49" s="49" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12171,97 +12399,97 @@
       <c r="U50" s="5">
         <v>35</v>
       </c>
-      <c r="V50" s="72" t="s">
+      <c r="V50" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="W50" s="70" t="s">
+      <c r="W50" s="49" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="51" spans="4:23" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
       <c r="U51" s="5">
         <v>36</v>
       </c>
-      <c r="V51" s="69" t="s">
+      <c r="V51" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="70" t="s">
+      <c r="W51" s="49" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="52" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
     </row>
     <row r="54" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
     </row>
     <row r="55" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
     </row>
     <row r="56" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" spans="4:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="3660" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P3660" t="s">
@@ -12270,12 +12498,23 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="BU40:BV40"/>
+    <mergeCell ref="BP27:BQ27"/>
+    <mergeCell ref="BU27:BV27"/>
     <mergeCell ref="CH15:CJ15"/>
     <mergeCell ref="CH16:CJ16"/>
     <mergeCell ref="CH18:CJ18"/>
     <mergeCell ref="CH20:CJ20"/>
     <mergeCell ref="BP21:BQ21"/>
     <mergeCell ref="BU21:BV21"/>
+    <mergeCell ref="BF40:BG40"/>
+    <mergeCell ref="BF45:BG45"/>
+    <mergeCell ref="BZ18:CA18"/>
+    <mergeCell ref="BZ22:CA22"/>
+    <mergeCell ref="BK21:BL21"/>
+    <mergeCell ref="BK27:BL27"/>
+    <mergeCell ref="BK33:BL33"/>
+    <mergeCell ref="BK40:BL40"/>
     <mergeCell ref="BP33:BQ33"/>
     <mergeCell ref="BZ26:CA26"/>
     <mergeCell ref="BU33:BV33"/>
@@ -12284,24 +12523,13 @@
     <mergeCell ref="BP45:BQ45"/>
     <mergeCell ref="BU45:BV45"/>
     <mergeCell ref="BP40:BQ40"/>
-    <mergeCell ref="BU40:BV40"/>
-    <mergeCell ref="BP27:BQ27"/>
-    <mergeCell ref="BU27:BV27"/>
-    <mergeCell ref="BF27:BG27"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="BF40:BG40"/>
-    <mergeCell ref="BF45:BG45"/>
-    <mergeCell ref="BZ18:CA18"/>
-    <mergeCell ref="BZ22:CA22"/>
-    <mergeCell ref="BK21:BL21"/>
-    <mergeCell ref="BK27:BL27"/>
-    <mergeCell ref="BK33:BL33"/>
-    <mergeCell ref="BK40:BL40"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="AF12:AJ12"/>
     <mergeCell ref="AL12:AP12"/>
     <mergeCell ref="BF21:BG21"/>
     <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="BF27:BG27"/>
+    <mergeCell ref="BF33:BG33"/>
     <mergeCell ref="AA47:AB47"/>
     <mergeCell ref="AH24:AI24"/>
     <mergeCell ref="AH30:AI30"/>
@@ -12312,12 +12540,12 @@
     <mergeCell ref="U14:W14"/>
     <mergeCell ref="AA21:AB21"/>
     <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="P7:W7"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="P5:W5"/>
     <mergeCell ref="P6:W6"/>
-    <mergeCell ref="P7:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
